--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -420,7 +420,7 @@
       <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="8" customWidth="1" style="6" min="1" max="1"/>
     <col width="16.125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -725,8 +725,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -748,7 +752,7 @@
       <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="4" customWidth="1" style="6" min="1" max="1"/>
     <col width="14.125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -1034,7 +1038,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -1053,7 +1059,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="6" min="1" max="1"/>
     <col width="14.125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -1360,7 +1366,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -1379,7 +1387,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="14.125" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
     <col width="20.25" customWidth="1" style="6" min="5" max="5"/>
@@ -1478,7 +1486,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300" copies="0"/>
@@ -1497,7 +1507,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="13.875" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
     <col width="12.75" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -1512,7 +1522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
